--- a/measure.xlsx
+++ b/measure.xlsx
@@ -320,22 +320,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57588200</c:v>
+                  <c:v>63753800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58062000</c:v>
+                  <c:v>64433800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63076000</c:v>
+                  <c:v>64924300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62666600</c:v>
+                  <c:v>64806300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63005900</c:v>
+                  <c:v>64601200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62982400</c:v>
+                  <c:v>63418900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,33 +435,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>53861000</c:v>
+                  <c:v>61396400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55781900</c:v>
+                  <c:v>62318400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55620900</c:v>
+                  <c:v>62283500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55957300</c:v>
+                  <c:v>62313800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55821900</c:v>
+                  <c:v>62500900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55756700</c:v>
+                  <c:v>62492500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91314195"/>
-        <c:axId val="59111411"/>
+        <c:axId val="75853140"/>
+        <c:axId val="55366318"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91314195"/>
+        <c:axId val="75853140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +491,7 @@
                   <a:rPr b="0" lang="ru-RU" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Window size</a:t>
+                  <a:t>Window size, samples</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -526,13 +526,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59111411"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="55366318"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="16"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59111411"/>
+        <c:axId val="55366318"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +596,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91314195"/>
+        <c:crossAx val="75853140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -650,15 +649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>307440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:colOff>381960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -666,8 +665,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2931480" y="401760"/>
-        <a:ext cx="5763600" cy="3241440"/>
+        <a:off x="3020760" y="162720"/>
+        <a:ext cx="5764320" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -688,14 +687,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>57588200</v>
+        <v>63753800</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>53861000</v>
+        <v>61396400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>58062000</v>
+        <v>64433800</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>55781900</v>
+        <v>62318400</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,10 +734,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>63076000</v>
+        <v>64924300</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>55620900</v>
+        <v>62283500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,10 +745,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>62666600</v>
+        <v>64806300</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>55957300</v>
+        <v>62313800</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,10 +756,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>63005900</v>
+        <v>64601200</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>55821900</v>
+        <v>62500900</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,10 +767,10 @@
         <v>128</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>62982400</v>
+        <v>63418900</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>55756700</v>
+        <v>62492500</v>
       </c>
     </row>
   </sheetData>
